--- a/data/financial_statements/soci/UHS.xlsx
+++ b/data/financial_statements/soci/UHS.xlsx
@@ -14,9 +14,126 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
-  <si>
-    <t>Unnamed: 0</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="74">
+  <si>
+    <t>2022-09-30</t>
+  </si>
+  <si>
+    <t>2022-06-30</t>
+  </si>
+  <si>
+    <t>2022-03-31</t>
+  </si>
+  <si>
+    <t>2021-12-31</t>
+  </si>
+  <si>
+    <t>2021-09-30</t>
+  </si>
+  <si>
+    <t>2021-06-30</t>
+  </si>
+  <si>
+    <t>2021-03-31</t>
+  </si>
+  <si>
+    <t>2020-12-31</t>
+  </si>
+  <si>
+    <t>2020-09-30</t>
+  </si>
+  <si>
+    <t>2020-06-30</t>
+  </si>
+  <si>
+    <t>2020-03-31</t>
+  </si>
+  <si>
+    <t>2019-12-31</t>
+  </si>
+  <si>
+    <t>2019-09-30</t>
+  </si>
+  <si>
+    <t>2019-06-30</t>
+  </si>
+  <si>
+    <t>2019-03-31</t>
+  </si>
+  <si>
+    <t>2018-12-31</t>
+  </si>
+  <si>
+    <t>2018-09-30</t>
+  </si>
+  <si>
+    <t>2018-06-30</t>
+  </si>
+  <si>
+    <t>2018-03-31</t>
+  </si>
+  <si>
+    <t>2017-12-31</t>
+  </si>
+  <si>
+    <t>2017-09-30</t>
+  </si>
+  <si>
+    <t>2017-06-30</t>
+  </si>
+  <si>
+    <t>2017-03-31</t>
+  </si>
+  <si>
+    <t>2016-12-31</t>
+  </si>
+  <si>
+    <t>2016-09-30</t>
+  </si>
+  <si>
+    <t>2016-06-30</t>
+  </si>
+  <si>
+    <t>2016-03-31</t>
+  </si>
+  <si>
+    <t>2015-12-31</t>
+  </si>
+  <si>
+    <t>2015-09-30</t>
+  </si>
+  <si>
+    <t>2015-06-30</t>
+  </si>
+  <si>
+    <t>2015-03-31</t>
+  </si>
+  <si>
+    <t>2014-12-31</t>
+  </si>
+  <si>
+    <t>2014-09-30</t>
+  </si>
+  <si>
+    <t>2014-06-30</t>
+  </si>
+  <si>
+    <t>2014-03-31</t>
+  </si>
+  <si>
+    <t>2013-12-31</t>
+  </si>
+  <si>
+    <t>2013-09-30</t>
+  </si>
+  <si>
+    <t>2013-06-30</t>
+  </si>
+  <si>
+    <t>2013-03-31</t>
+  </si>
+  <si>
+    <t>Item</t>
   </si>
   <si>
     <t>Revenue</t>
@@ -125,9 +242,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
-  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -180,12 +294,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -490,144 +601,144 @@
   <sheetData>
     <row r="1" spans="1:40">
       <c r="A1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2">
-        <v>44834</v>
-      </c>
-      <c r="C1" s="2">
-        <v>44742</v>
-      </c>
-      <c r="D1" s="2">
-        <v>44651</v>
-      </c>
-      <c r="E1" s="2">
-        <v>44561</v>
-      </c>
-      <c r="F1" s="2">
-        <v>44469</v>
-      </c>
-      <c r="G1" s="2">
-        <v>44377</v>
-      </c>
-      <c r="H1" s="2">
-        <v>44286</v>
-      </c>
-      <c r="I1" s="2">
-        <v>44196</v>
-      </c>
-      <c r="J1" s="2">
-        <v>44104</v>
-      </c>
-      <c r="K1" s="2">
-        <v>44012</v>
-      </c>
-      <c r="L1" s="2">
-        <v>43921</v>
-      </c>
-      <c r="M1" s="2">
-        <v>43830</v>
-      </c>
-      <c r="N1" s="2">
-        <v>43738</v>
-      </c>
-      <c r="O1" s="2">
-        <v>43646</v>
-      </c>
-      <c r="P1" s="2">
-        <v>43555</v>
-      </c>
-      <c r="Q1" s="2">
-        <v>43465</v>
-      </c>
-      <c r="R1" s="2">
-        <v>43373</v>
-      </c>
-      <c r="S1" s="2">
-        <v>43281</v>
-      </c>
-      <c r="T1" s="2">
-        <v>43190</v>
-      </c>
-      <c r="U1" s="2">
-        <v>43100</v>
-      </c>
-      <c r="V1" s="2">
-        <v>43008</v>
-      </c>
-      <c r="W1" s="2">
-        <v>42916</v>
-      </c>
-      <c r="X1" s="2">
-        <v>42825</v>
-      </c>
-      <c r="Y1" s="2">
-        <v>42735</v>
-      </c>
-      <c r="Z1" s="2">
-        <v>42643</v>
-      </c>
-      <c r="AA1" s="2">
-        <v>42551</v>
-      </c>
-      <c r="AB1" s="2">
-        <v>42460</v>
-      </c>
-      <c r="AC1" s="2">
-        <v>42369</v>
-      </c>
-      <c r="AD1" s="2">
-        <v>42277</v>
-      </c>
-      <c r="AE1" s="2">
-        <v>42185</v>
-      </c>
-      <c r="AF1" s="2">
-        <v>42094</v>
-      </c>
-      <c r="AG1" s="2">
-        <v>42004</v>
-      </c>
-      <c r="AH1" s="2">
-        <v>41912</v>
-      </c>
-      <c r="AI1" s="2">
-        <v>41820</v>
-      </c>
-      <c r="AJ1" s="2">
-        <v>41729</v>
-      </c>
-      <c r="AK1" s="2">
-        <v>41639</v>
-      </c>
-      <c r="AL1" s="2">
-        <v>41547</v>
-      </c>
-      <c r="AM1" s="2">
-        <v>41455</v>
-      </c>
-      <c r="AN1" s="2">
-        <v>41364</v>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:40">
-      <c r="A2" t="s">
-        <v>1</v>
+      <c r="A2" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="B2">
-        <v>3336027000</v>
+        <v>3336000000</v>
       </c>
       <c r="C2">
-        <v>3323407000</v>
+        <v>3323000000</v>
       </c>
       <c r="D2">
-        <v>3292956000</v>
+        <v>3293000000</v>
       </c>
       <c r="E2">
-        <v>3275251000</v>
+        <v>3275000000</v>
       </c>
       <c r="F2">
-        <v>3155999000</v>
+        <v>3156000000</v>
       </c>
       <c r="G2">
         <v>3197880000</v>
@@ -733,20 +844,20 @@
       </c>
     </row>
     <row r="3" spans="1:40">
-      <c r="A3" t="s">
-        <v>2</v>
+      <c r="A3" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="B3">
         <v>0.057</v>
       </c>
       <c r="C3">
-        <v>0.0393</v>
+        <v>0.0391</v>
       </c>
       <c r="D3">
         <v>0.0929</v>
       </c>
       <c r="E3">
-        <v>0.061</v>
+        <v>0.0609</v>
       </c>
       <c r="F3">
         <v>0.08359999999999999</v>
@@ -855,23 +966,23 @@
       </c>
     </row>
     <row r="4" spans="1:40">
-      <c r="A4" t="s">
-        <v>3</v>
+      <c r="A4" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="B4">
-        <v>366337000</v>
+        <v>3060000000</v>
       </c>
       <c r="C4">
-        <v>354993000</v>
+        <v>3090000000</v>
       </c>
       <c r="D4">
-        <v>371073000</v>
+        <v>3060000000</v>
       </c>
       <c r="E4">
-        <v>374157100</v>
+        <v>2962000000</v>
       </c>
       <c r="F4">
-        <v>367834000</v>
+        <v>2841000000</v>
       </c>
       <c r="G4">
         <v>338033000</v>
@@ -977,23 +1088,23 @@
       </c>
     </row>
     <row r="5" spans="1:40">
-      <c r="A5" t="s">
-        <v>4</v>
+      <c r="A5" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="B5">
-        <v>2969690000</v>
+        <v>276000000</v>
       </c>
       <c r="C5">
-        <v>2968414000</v>
+        <v>233000000</v>
       </c>
       <c r="D5">
-        <v>2921883000</v>
+        <v>233000000</v>
       </c>
       <c r="E5">
-        <v>2901094000</v>
+        <v>314000000</v>
       </c>
       <c r="F5">
-        <v>2788165000</v>
+        <v>315000000</v>
       </c>
       <c r="G5">
         <v>2859847000</v>
@@ -1099,8 +1210,8 @@
       </c>
     </row>
     <row r="6" spans="1:40">
-      <c r="A6" t="s">
-        <v>5</v>
+      <c r="A6" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="B6">
         <v>1677431000</v>
@@ -1221,8 +1332,8 @@
       </c>
     </row>
     <row r="7" spans="1:40">
-      <c r="A7" t="s">
-        <v>6</v>
+      <c r="A7" s="1" t="s">
+        <v>45</v>
       </c>
       <c r="B7">
         <v>275880100</v>
@@ -1343,8 +1454,8 @@
       </c>
     </row>
     <row r="8" spans="1:40">
-      <c r="A8" t="s">
-        <v>7</v>
+      <c r="A8" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="B8">
         <v>36000000</v>
@@ -1384,23 +1495,23 @@
       </c>
     </row>
     <row r="9" spans="1:40">
-      <c r="A9" t="s">
-        <v>8</v>
+      <c r="A9" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="B9">
-        <v>35653000</v>
+        <v>0</v>
       </c>
       <c r="C9">
-        <v>25676000</v>
+        <v>0</v>
       </c>
       <c r="D9">
-        <v>21673000</v>
+        <v>0</v>
       </c>
       <c r="E9">
-        <v>19217000</v>
+        <v>0</v>
       </c>
       <c r="F9">
-        <v>21199000</v>
+        <v>0</v>
       </c>
       <c r="G9">
         <v>21299000</v>
@@ -1506,23 +1617,23 @@
       </c>
     </row>
     <row r="10" spans="1:40">
-      <c r="A10" t="s">
-        <v>9</v>
+      <c r="A10" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="B10">
-        <v>-41668000</v>
+        <v>-6000000</v>
       </c>
       <c r="C10">
-        <v>-23704000</v>
+        <v>2000000</v>
       </c>
       <c r="D10">
-        <v>-32874000</v>
+        <v>-12000000</v>
       </c>
       <c r="E10">
-        <v>-6901000</v>
+        <v>7000000</v>
       </c>
       <c r="F10">
-        <v>-27918000</v>
+        <v>27000000</v>
       </c>
       <c r="G10">
         <v>-12170000</v>
@@ -1628,23 +1739,23 @@
       </c>
     </row>
     <row r="11" spans="1:40">
-      <c r="A11" t="s">
-        <v>10</v>
+      <c r="A11" s="1" t="s">
+        <v>49</v>
       </c>
       <c r="B11">
-        <v>234212000</v>
+        <v>234000000</v>
       </c>
       <c r="C11">
-        <v>209730000</v>
+        <v>210000000</v>
       </c>
       <c r="D11">
-        <v>199983000</v>
+        <v>200000000</v>
       </c>
       <c r="E11">
-        <v>306748000</v>
+        <v>307000000</v>
       </c>
       <c r="F11">
-        <v>286890000</v>
+        <v>287000000</v>
       </c>
       <c r="G11">
         <v>426798000</v>
@@ -1750,23 +1861,23 @@
       </c>
     </row>
     <row r="12" spans="1:40">
-      <c r="A12" t="s">
-        <v>11</v>
+      <c r="A12" s="1" t="s">
+        <v>50</v>
       </c>
       <c r="B12">
-        <v>57401000</v>
+        <v>57000000</v>
       </c>
       <c r="C12">
-        <v>50949000</v>
+        <v>51000000</v>
       </c>
       <c r="D12">
-        <v>48962000</v>
+        <v>49000000</v>
       </c>
       <c r="E12">
-        <v>72837000</v>
+        <v>73000000</v>
       </c>
       <c r="F12">
-        <v>67515000</v>
+        <v>68000000</v>
       </c>
       <c r="G12">
         <v>101522000</v>
@@ -1872,8 +1983,8 @@
       </c>
     </row>
     <row r="13" spans="1:40">
-      <c r="A13" t="s">
-        <v>12</v>
+      <c r="A13" s="1" t="s">
+        <v>51</v>
       </c>
       <c r="B13">
         <v>176811000</v>
@@ -1994,8 +2105,8 @@
       </c>
     </row>
     <row r="14" spans="1:40">
-      <c r="A14" t="s">
-        <v>13</v>
+      <c r="A14" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="B14">
         <v>179000</v>
@@ -2071,8 +2182,8 @@
       </c>
     </row>
     <row r="15" spans="1:40">
-      <c r="A15" t="s">
-        <v>14</v>
+      <c r="A15" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="B15">
         <v>-6003000</v>
@@ -2193,23 +2304,23 @@
       </c>
     </row>
     <row r="16" spans="1:40">
-      <c r="A16" t="s">
-        <v>15</v>
+      <c r="A16" s="1" t="s">
+        <v>54</v>
       </c>
       <c r="B16">
-        <v>182635000</v>
+        <v>183000000</v>
       </c>
       <c r="C16">
-        <v>163898000</v>
+        <v>164000000</v>
       </c>
       <c r="D16">
-        <v>153664000</v>
+        <v>154000000</v>
       </c>
       <c r="E16">
-        <v>238674000</v>
+        <v>239000000</v>
       </c>
       <c r="F16">
-        <v>217955000</v>
+        <v>218000000</v>
       </c>
       <c r="G16">
         <v>324363000</v>
@@ -2315,23 +2426,23 @@
       </c>
     </row>
     <row r="17" spans="1:40">
-      <c r="A17" t="s">
-        <v>16</v>
+      <c r="A17" s="1" t="s">
+        <v>55</v>
       </c>
       <c r="B17">
-        <v>2.52</v>
+        <v>2.5</v>
       </c>
       <c r="C17">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="D17">
-        <v>2.05</v>
+        <v>2.02</v>
       </c>
       <c r="E17">
-        <v>3.03</v>
+        <v>3</v>
       </c>
       <c r="F17">
-        <v>2.65</v>
+        <v>2.6</v>
       </c>
       <c r="G17">
         <v>3.85</v>
@@ -2437,8 +2548,8 @@
       </c>
     </row>
     <row r="18" spans="1:40">
-      <c r="A18" t="s">
-        <v>17</v>
+      <c r="A18" s="1" t="s">
+        <v>56</v>
       </c>
       <c r="B18">
         <v>2.5</v>
@@ -2559,23 +2670,23 @@
       </c>
     </row>
     <row r="19" spans="1:40">
-      <c r="A19" t="s">
-        <v>18</v>
+      <c r="A19" s="1" t="s">
+        <v>57</v>
       </c>
       <c r="B19">
-        <v>72595000</v>
+        <v>73000000</v>
       </c>
       <c r="C19">
-        <v>73682000</v>
+        <v>74000000</v>
       </c>
       <c r="D19">
-        <v>75030000</v>
+        <v>75000000</v>
       </c>
       <c r="E19">
-        <v>82519000</v>
+        <v>79000000</v>
       </c>
       <c r="F19">
-        <v>82262000</v>
+        <v>82000000</v>
       </c>
       <c r="G19">
         <v>84224000</v>
@@ -2681,23 +2792,23 @@
       </c>
     </row>
     <row r="20" spans="1:40">
-      <c r="A20" t="s">
-        <v>19</v>
+      <c r="A20" s="1" t="s">
+        <v>58</v>
       </c>
       <c r="B20">
-        <v>73060000</v>
+        <v>73000000</v>
       </c>
       <c r="C20">
-        <v>74435000</v>
+        <v>74000000</v>
       </c>
       <c r="D20">
-        <v>76041000</v>
+        <v>76000000</v>
       </c>
       <c r="E20">
-        <v>83692000</v>
+        <v>80000000</v>
       </c>
       <c r="F20">
-        <v>83673000</v>
+        <v>84000000</v>
       </c>
       <c r="G20">
         <v>85624000</v>
@@ -2803,23 +2914,23 @@
       </c>
     </row>
     <row r="21" spans="1:40">
-      <c r="A21" t="s">
-        <v>20</v>
+      <c r="A21" s="1" t="s">
+        <v>59</v>
       </c>
       <c r="B21">
-        <v>0.8902</v>
+        <v>0.0827</v>
       </c>
       <c r="C21">
-        <v>0.8932</v>
+        <v>0.0701</v>
       </c>
       <c r="D21">
-        <v>0.8873</v>
+        <v>0.0708</v>
       </c>
       <c r="E21">
-        <v>0.8858</v>
+        <v>0.0959</v>
       </c>
       <c r="F21">
-        <v>0.8834</v>
+        <v>0.0998</v>
       </c>
       <c r="G21">
         <v>0.8943</v>
@@ -2925,8 +3036,8 @@
       </c>
     </row>
     <row r="22" spans="1:40">
-      <c r="A22" t="s">
-        <v>21</v>
+      <c r="A22" s="1" t="s">
+        <v>60</v>
       </c>
       <c r="B22">
         <v>0.0827</v>
@@ -3047,14 +3158,14 @@
       </c>
     </row>
     <row r="23" spans="1:40">
-      <c r="A23" t="s">
-        <v>22</v>
+      <c r="A23" s="1" t="s">
+        <v>61</v>
       </c>
       <c r="B23">
-        <v>0.0702</v>
+        <v>0.0701</v>
       </c>
       <c r="C23">
-        <v>0.0631</v>
+        <v>0.06320000000000001</v>
       </c>
       <c r="D23">
         <v>0.0607</v>
@@ -3169,20 +3280,20 @@
       </c>
     </row>
     <row r="24" spans="1:40">
-      <c r="A24" t="s">
-        <v>23</v>
+      <c r="A24" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="B24">
-        <v>0.0547</v>
+        <v>0.0549</v>
       </c>
       <c r="C24">
-        <v>0.0493</v>
+        <v>0.0494</v>
       </c>
       <c r="D24">
-        <v>0.0467</v>
+        <v>0.0468</v>
       </c>
       <c r="E24">
-        <v>0.07290000000000001</v>
+        <v>0.073</v>
       </c>
       <c r="F24">
         <v>0.06909999999999999</v>
@@ -3291,23 +3402,23 @@
       </c>
     </row>
     <row r="25" spans="1:40">
-      <c r="A25" t="s">
-        <v>24</v>
+      <c r="A25" s="1" t="s">
+        <v>63</v>
       </c>
       <c r="B25">
-        <v>421754100</v>
+        <v>422000000</v>
       </c>
       <c r="C25">
-        <v>377284100</v>
+        <v>377000000</v>
       </c>
       <c r="D25">
-        <v>376640900</v>
+        <v>377000000</v>
       </c>
       <c r="E25">
-        <v>447012200</v>
+        <v>447000000</v>
       </c>
       <c r="F25">
-        <v>449269900</v>
+        <v>449000000</v>
       </c>
       <c r="G25">
         <v>572952800</v>
@@ -3413,8 +3524,8 @@
       </c>
     </row>
     <row r="26" spans="1:40">
-      <c r="A26" t="s">
-        <v>25</v>
+      <c r="A26" s="1" t="s">
+        <v>64</v>
       </c>
       <c r="B26">
         <v>275880100</v>
@@ -3535,8 +3646,8 @@
       </c>
     </row>
     <row r="27" spans="1:40">
-      <c r="A27" t="s">
-        <v>26</v>
+      <c r="A27" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="B27">
         <v>176811000</v>
@@ -3657,23 +3768,23 @@
       </c>
     </row>
     <row r="28" spans="1:40">
-      <c r="A28" t="s">
-        <v>27</v>
+      <c r="A28" s="1" t="s">
+        <v>66</v>
       </c>
       <c r="B28">
-        <v>176811000</v>
+        <v>177000000</v>
       </c>
       <c r="C28">
-        <v>158781000</v>
+        <v>159000000</v>
       </c>
       <c r="D28">
-        <v>151021000</v>
+        <v>151000000</v>
       </c>
       <c r="E28">
-        <v>233911000</v>
+        <v>233000000</v>
       </c>
       <c r="F28">
-        <v>219375000</v>
+        <v>219000000</v>
       </c>
       <c r="G28">
         <v>325276000</v>
@@ -3779,8 +3890,8 @@
       </c>
     </row>
     <row r="29" spans="1:40">
-      <c r="A29" t="s">
-        <v>28</v>
+      <c r="A29" s="1" t="s">
+        <v>67</v>
       </c>
       <c r="B29">
         <v>2.4356</v>
@@ -3901,8 +4012,8 @@
       </c>
     </row>
     <row r="30" spans="1:40">
-      <c r="A30" t="s">
-        <v>29</v>
+      <c r="A30" s="1" t="s">
+        <v>68</v>
       </c>
       <c r="B30">
         <v>2.4201</v>
@@ -4023,8 +4134,8 @@
       </c>
     </row>
     <row r="31" spans="1:40">
-      <c r="A31" t="s">
-        <v>30</v>
+      <c r="A31" s="1" t="s">
+        <v>69</v>
       </c>
       <c r="B31">
         <v>2.4356</v>
@@ -4145,8 +4256,8 @@
       </c>
     </row>
     <row r="32" spans="1:40">
-      <c r="A32" t="s">
-        <v>31</v>
+      <c r="A32" s="1" t="s">
+        <v>70</v>
       </c>
       <c r="B32">
         <v>2.4201</v>
@@ -4267,8 +4378,8 @@
       </c>
     </row>
     <row r="33" spans="1:40">
-      <c r="A33" t="s">
-        <v>32</v>
+      <c r="A33" s="1" t="s">
+        <v>71</v>
       </c>
       <c r="B33">
         <v>73060000</v>
@@ -4389,23 +4500,23 @@
       </c>
     </row>
     <row r="34" spans="1:40">
-      <c r="A34" t="s">
-        <v>33</v>
+      <c r="A34" s="1" t="s">
+        <v>72</v>
       </c>
       <c r="B34">
-        <v>0.1264</v>
+        <v>0.1265</v>
       </c>
       <c r="C34">
         <v>0.1135</v>
       </c>
       <c r="D34">
-        <v>0.1144</v>
+        <v>0.1145</v>
       </c>
       <c r="E34">
         <v>0.1365</v>
       </c>
       <c r="F34">
-        <v>0.1424</v>
+        <v>0.1423</v>
       </c>
       <c r="G34">
         <v>0.1792</v>
@@ -4511,8 +4622,8 @@
       </c>
     </row>
     <row r="35" spans="1:40">
-      <c r="A35" t="s">
-        <v>34</v>
+      <c r="A35" s="1" t="s">
+        <v>73</v>
       </c>
       <c r="B35">
         <v>0.06610000000000001</v>
